--- a/eval/eval_results.xlsx
+++ b/eval/eval_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaser\Documents\workspace\side-projects\montaai\Take Home Assignment\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaser\Documents\workspace\side-projects\montaai\Take Home Assignment\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4DDA9-E477-4367-83B3-4EEE2C9FBA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB4251-27AF-4A83-8A91-795231EE7708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Experiment #</t>
   </si>
@@ -37,14 +37,37 @@
   </si>
   <si>
     <t>Use `format_page` function</t>
+  </si>
+  <si>
+    <t>Use `format_page` function and Cohere rerank with minimum relevance score of 0.5</t>
+  </si>
+  <si>
+    <t>Use `format_page` function and Cohere rerank with minimum relevance score of 0.1</t>
+  </si>
+  <si>
+    <t>Use `format_page` function and Cohere rerank with minimum relevance score of 0.1 and Cohere command-r-plus for generation</t>
+  </si>
+  <si>
+    <t>Use `format_page` function and Cohere rerank with minimum relevance score of 0.5 and Cohere command-r-plus for generation</t>
+  </si>
+  <si>
+    <t>Temprature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,20 +378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="107.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,16 +401,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.14285714285714199</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -396,8 +426,168 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0.65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>